--- a/tagi.xlsx
+++ b/tagi.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>iemnia</t>
   </si>
@@ -19,34 +19,7 @@
     <t>olej</t>
   </si>
   <si>
-    <t>siark</t>
-  </si>
-  <si>
-    <t>kwiecień</t>
-  </si>
-  <si>
-    <t>dobrym stan</t>
-  </si>
-  <si>
-    <t>czerwiec</t>
-  </si>
-  <si>
-    <t>lipiec</t>
-  </si>
-  <si>
-    <t>Kosiarka</t>
-  </si>
-  <si>
-    <t>wrzesień</t>
-  </si>
-  <si>
-    <t>pazdziernik</t>
-  </si>
-  <si>
-    <t>listopad</t>
-  </si>
-  <si>
-    <t>grudzień</t>
+    <t>siewu</t>
   </si>
 </sst>
 </file>
@@ -321,49 +294,31 @@
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A4" s="2"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A5" s="1"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A6" s="2"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A7" s="2"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A8" s="1"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A9" s="2"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A10" s="2"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A11" s="2"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A12" s="2"/>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
     <row r="14" ht="15.75" customHeight="1"/>

--- a/tagi.xlsx
+++ b/tagi.xlsx
@@ -11,15 +11,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>iemnia</t>
+    <t>sk</t>
+  </si>
+  <si>
+    <t>ask</t>
   </si>
   <si>
     <t>olej</t>
   </si>
   <si>
     <t>siewu</t>
+  </si>
+  <si>
+    <t>ziemniaki</t>
   </si>
 </sst>
 </file>
@@ -282,19 +288,24 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="2"/>
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
